--- a/corrected_code_dictionary.xlsx
+++ b/corrected_code_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans\Dropbox\Github\troubleshooter-mastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4CDEB-76BC-4A69-8B1B-60BE8FF5C99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E72949-37F2-442E-BCE2-FE31E54DAE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>II</t>
   </si>
@@ -43,458 +43,466 @@
     <t>Lucky No 8</t>
   </si>
   <si>
+    <t>Practiced Hands</t>
+  </si>
+  <si>
+    <t>Pyromanic</t>
+  </si>
+  <si>
+    <t>Spreading the Fire</t>
+  </si>
+  <si>
+    <t>Lightning Master</t>
+  </si>
+  <si>
+    <t>Extreme lighting Strike</t>
+  </si>
+  <si>
+    <t>Earth Sorcerer</t>
+  </si>
+  <si>
+    <t>Wind Master</t>
+  </si>
+  <si>
+    <t>Water Type</t>
+  </si>
+  <si>
+    <t>I am Hero Irene</t>
+  </si>
+  <si>
+    <t>The Resposibility of Hero</t>
+  </si>
+  <si>
+    <t>A higher place than where you are</t>
+  </si>
+  <si>
+    <t>the one who walks the sky</t>
+  </si>
+  <si>
+    <t>The Predator above Water</t>
+  </si>
+  <si>
+    <t>Magic Sword Curtain</t>
+  </si>
+  <si>
+    <t>Magic Resonace</t>
+  </si>
+  <si>
+    <t>Assistance Magic Circuit</t>
+  </si>
+  <si>
+    <t>With Full Body and Full Strength</t>
+  </si>
+  <si>
+    <t>Arresting Force</t>
+  </si>
+  <si>
+    <t>I'm Want More</t>
+  </si>
+  <si>
+    <t>Gun Lightning</t>
+  </si>
+  <si>
+    <t>Gun Barrel Reinforcement</t>
+  </si>
+  <si>
+    <t>Close Supression Fire</t>
+  </si>
+  <si>
+    <t>Base defend</t>
+  </si>
+  <si>
+    <t>Sniping Class</t>
+  </si>
+  <si>
+    <t>A Suprise Performance</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>A Surprise Performance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Reaction Attack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Responsive Attack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Protocol Automatically [Achievement mastery]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Protocol Automatically</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid Dynamics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid Mechanics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disassemble Specialist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disassembly Specialist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenaider's Bag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenadier's Bag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Defense</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Suppression Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gunbarrel Reinforcement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun Lightening</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want more</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arresting Force</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bless of Regeneration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessing of Regeneration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>With Full Heart and Full Strength</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutralizing Enemy's Force</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutralizing Enemy's Force</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returning Enemy's Force</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporting Magic Circuit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Resonance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Sword Curtains</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Memory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Predator Above Water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The One Who Walks on the Sky</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walker of the Woods</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walker of the Bush</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyromaniac</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapidfire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>So Close, Yet So Far</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Responsibility of a Hero</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreezingResistant Side Effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freezing-Resistance Fluid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am the hero Irene!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Million Times of Training</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Million Years of Training</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freezing-Resistant Side Effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freezing-Resistant Fluid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A little higher place than where you are</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returning the Enemy's Force</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practiced Hand</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keen Sense</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keen Sense</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawk Eye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawk's Eye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judgment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky No 7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky No. 8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky No. 7</t>
+  </si>
+  <si>
+    <t>Lucky No. 9</t>
+  </si>
+  <si>
+    <t>Compentence</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitay Fighter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitary Fighter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Striker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Strike</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword Master</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swordmaster</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightining Reflexes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Reflexes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raging Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame Magician</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spreading Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Magician</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme Lightning Strike</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Magician</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind Magician</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Competence</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flucuating Waterflow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluctuating Waterflow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raging Flame</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Resist. I/II/III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/Ice/Lightning/Wind/Water/Earth Blessing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Resistance I/II/III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blunt I(II,III)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blunt Resistance I/II/III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piercing Resistance I/II/III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slashing Resistance I/II/III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/Ice/Lightning/Wind/Water/Earth Resistance I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/Ice/Lightning/Wind/Water/Earth Resistance II</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/Ice/Lightning/Wind/Water/Earth Resistance III</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(7869)</t>
+  </si>
+  <si>
+    <t>None(1380)</t>
+  </si>
+  <si>
+    <t>None(1724)</t>
+  </si>
+  <si>
+    <t>None(1825)</t>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloody Memory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">General </t>
-  </si>
-  <si>
-    <t>Practiced Hands</t>
-  </si>
-  <si>
-    <t>Pyromanic</t>
-  </si>
-  <si>
-    <t>Spreading the Fire</t>
-  </si>
-  <si>
-    <t>Lightning Master</t>
-  </si>
-  <si>
-    <t>Extreme lighting Strike</t>
-  </si>
-  <si>
-    <t>Earth Sorcerer</t>
-  </si>
-  <si>
-    <t>Wind Master</t>
-  </si>
-  <si>
-    <t>Water Type</t>
-  </si>
-  <si>
-    <t>I am Hero Irene</t>
-  </si>
-  <si>
-    <t>The Resposibility of Hero</t>
-  </si>
-  <si>
-    <t>A higher place than where you are</t>
-  </si>
-  <si>
-    <t>the one who walks the sky</t>
-  </si>
-  <si>
-    <t>The Predator above Water</t>
-  </si>
-  <si>
-    <t>Magic Sword Curtain</t>
-  </si>
-  <si>
-    <t>Magic Resonace</t>
-  </si>
-  <si>
-    <t>Assistance Magic Circuit</t>
-  </si>
-  <si>
-    <t>With Full Body and Full Strength</t>
-  </si>
-  <si>
-    <t>Arresting Force</t>
-  </si>
-  <si>
-    <t>I'm Want More</t>
-  </si>
-  <si>
-    <t>Gun Lightning</t>
-  </si>
-  <si>
-    <t>Gun Barrel Reinforcement</t>
-  </si>
-  <si>
-    <t>Close Supression Fire</t>
-  </si>
-  <si>
-    <t>Base defend</t>
-  </si>
-  <si>
-    <t>Sniping Class</t>
-  </si>
-  <si>
-    <t>A Suprise Performance</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>A Surprise Performance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Reaction Attack</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote Responsive Attack</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restore Protocol Automatically [Achievement mastery]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restore Protocol Automatically</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solid Dynamics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solid Mechanics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disassemble Specialist</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disassembly Specialist</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grenaider's Bag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grenadier's Bag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Defense</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close Suppression Fire</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gunbarrel Reinforcement</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun Lightening</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>I want more</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arresting Force</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bless of Regeneration</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blessing of Regeneration</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>With Full Heart and Full Strength</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutralizing Enemy's Force</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neutralizing Enemy's Force</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Returning Enemy's Force</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supporting Magic Circuit</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic Resonance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic Sword Curtains</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood Memory</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Predator Above Water</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>The One Who Walks on the Sky</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walker of the Woods</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walker of the Bush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pyromaniac</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rapidfire</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rapid Fire</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>So Close, Yet So Far</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Responsibility of a Hero</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreezingResistant Side Effect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freezing-Resistance Fluid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am the hero Irene!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Million Times of Training</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Million Years of Training</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freezing-Resistant Side Effect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freezing-Resistant Fluid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A little higher place than where you are</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Returning the Enemy's Force</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Practiced Hand</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keen Sense</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keen Sense</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hawk Eye</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hawk's Eye</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judgment</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucky No 7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucky No. 8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucky No. 7</t>
-  </si>
-  <si>
-    <t>Lucky No. 9</t>
-  </si>
-  <si>
-    <t>Compentence</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solitay Fighter</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solitary Fighter</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavy Striker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavy Strike</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword Master</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swordmaster</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightining Reflexes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Reflexes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raging Fire</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flamist</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame Magician</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spreading Fire</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Magician</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extreme Lightning Strike</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earth Magician</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind Magician</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Competence</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flucuating Waterflow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fluctuating Waterflow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raging Flame</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Physical Resist. I/II/III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire/Ice/Lightning/Wind/Water/Earth Blessing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Physical Resistance I/II/III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blunt I(II,III)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blunt Resistance I/II/III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Piercing Resistance I/II/III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slashing Resistance I/II/III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire/Ice/Lightning/Wind/Water/Earth Resistance I</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire/Ice/Lightning/Wind/Water/Earth Resistance II</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire/Ice/Lightning/Wind/Water/Earth Resistance III</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>General</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>None(7869)</t>
-  </si>
-  <si>
-    <t>None(1380)</t>
-  </si>
-  <si>
-    <t>None(1724)</t>
-  </si>
-  <si>
-    <t>None(1825)</t>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloody Memory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Base Defend</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1447,9 +1455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1460,24 +1470,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,43 +1495,43 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,10 +1550,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1831</v>
@@ -1562,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>1620</v>
@@ -1570,10 +1580,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>9820</v>
@@ -1581,10 +1591,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
       </c>
       <c r="C12">
         <v>1545</v>
@@ -1595,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>1661</v>
@@ -1606,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1659</v>
@@ -1614,10 +1624,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1663</v>
@@ -1625,529 +1635,551 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="C16">
+        <v>21841</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C17">
-        <v>8556</v>
+        <v>21841</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C18">
-        <v>8016</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C19">
-        <v>1859</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20">
-        <v>1559</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21">
-        <v>12303</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C22">
-        <v>11047</v>
+        <v>12303</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>1637</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C24">
-        <v>1759</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>8363</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C26">
-        <v>1757</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>19731</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28">
-        <v>8097</v>
+        <v>19731</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29">
-        <v>13845</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30">
-        <v>8913</v>
+        <v>13845</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31">
-        <v>6115</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C32">
-        <v>262</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C33">
-        <v>13798</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C34">
-        <v>10842</v>
+        <v>13798</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
-        <v>12270</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36">
-        <v>12221</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C37">
-        <v>18282</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>19858</v>
+        <v>18282</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>7964</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>20269</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C41">
-        <v>13735</v>
+        <v>20269</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42">
-        <v>13539</v>
+        <v>13735</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
       <c r="C43">
-        <v>12070</v>
+        <v>13539</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C44">
-        <v>17574</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
       <c r="C45">
-        <v>10913</v>
+        <v>17574</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
       <c r="C46">
-        <v>10607</v>
+        <v>10913</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
       <c r="C47">
-        <v>10711</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C48">
-        <v>10803</v>
+        <v>10711</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>11034</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
       <c r="C50">
-        <v>10708</v>
+        <v>11034</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51">
-        <v>10881</v>
+        <v>10708</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52">
-        <v>10778</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
       <c r="C53">
-        <v>13249</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
       </c>
       <c r="C54">
-        <v>13252</v>
+        <v>13249</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
       </c>
       <c r="C55">
-        <v>14630</v>
+        <v>13252</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
         <v>46</v>
       </c>
       <c r="C56">
-        <v>12048</v>
+        <v>14630</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
         <v>45</v>
       </c>
       <c r="C57">
-        <v>11156</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C58">
-        <v>9409</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>15704</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C60">
-        <v>15066</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>15071</v>
+        <v>15704</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62">
-        <v>15039</v>
+        <v>15066</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
+        <v>15071</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>15039</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
         <v>18276</v>
       </c>
     </row>
